--- a/data/master.xlsx
+++ b/data/master.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="112">
   <si>
     <t>County</t>
   </si>
@@ -177,6 +177,9 @@
     <t>Use portal or email clerk</t>
   </si>
   <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
     <t>Fort Myers</t>
   </si>
   <si>
@@ -192,15 +195,27 @@
     <t>Use portal + All-in-one email</t>
   </si>
   <si>
+    <t>2025-08-12</t>
+  </si>
+  <si>
     <t>Fort Myers Planning Department</t>
   </si>
   <si>
+    <t>2025-08-13</t>
+  </si>
+  <si>
     <t>Fort Myers Environmental Department</t>
   </si>
   <si>
+    <t>2025-08-14</t>
+  </si>
+  <si>
     <t>Fort Myers Fire Department</t>
   </si>
   <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
     <t>Monroe</t>
   </si>
   <si>
@@ -216,15 +231,27 @@
     <t>https://monroecountyfl.nextrequest.com/</t>
   </si>
   <si>
+    <t>2025-08-16</t>
+  </si>
+  <si>
     <t>Monroe County Planning Department</t>
   </si>
   <si>
+    <t>2025-08-17</t>
+  </si>
+  <si>
     <t>Monroe County Environmental Department</t>
   </si>
   <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
     <t>Monroe County Fire Department</t>
   </si>
   <si>
+    <t>2025-08-19</t>
+  </si>
+  <si>
     <t>Miami Dade</t>
   </si>
   <si>
@@ -238,9 +265,6 @@
   </si>
   <si>
     <t>Use email for building department</t>
-  </si>
-  <si>
-    <t>2025-08-11</t>
   </si>
   <si>
     <t>Miami-Dade RER — Development Services &amp; Zoning</t>
@@ -334,9 +358,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-  </numFmts>
   <fonts count="9">
     <font>
       <sz val="11.0"/>
@@ -417,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -427,14 +448,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
@@ -955,8 +975,8 @@
       <c r="J9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="5">
-        <v>45880.0</v>
+      <c r="K9" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -964,31 +984,31 @@
         <v>36</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="5">
-        <v>45880.0</v>
+      <c r="K10" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11">
@@ -996,31 +1016,31 @@
         <v>36</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="5">
-        <v>45880.0</v>
+      <c r="K11" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12">
@@ -1028,31 +1048,31 @@
         <v>36</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="5">
-        <v>45880.0</v>
+      <c r="K12" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13">
@@ -1060,164 +1080,164 @@
         <v>36</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="5">
-        <v>45880.0</v>
+      <c r="K13" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="8">
-        <v>45880.0</v>
+      <c r="K14" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="8">
-        <v>45880.0</v>
+      <c r="K15" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="8">
-        <v>45880.0</v>
+      <c r="K16" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="8">
-        <v>45880.0</v>
+      <c r="K17" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>37</v>
@@ -1226,31 +1246,31 @@
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="G18" s="8"/>
       <c r="H18" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>37</v>
@@ -1259,31 +1279,31 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="9"/>
+        <v>85</v>
+      </c>
+      <c r="G19" s="8"/>
       <c r="H19" s="6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>37</v>
@@ -1292,31 +1312,31 @@
         <v>27</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" s="9"/>
+        <v>90</v>
+      </c>
+      <c r="G20" s="8"/>
       <c r="H20" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>37</v>
@@ -1325,176 +1345,176 @@
         <v>32</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="11" t="s">
+      <c r="A25" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="J25" s="11" t="s">
+      <c r="D25" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
+      <c r="K25" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>

--- a/data/master.xlsx
+++ b/data/master.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="121">
   <si>
     <t>County</t>
   </si>
@@ -297,13 +297,19 @@
     <t>Miami-Dade Fire Rescue — Public Records</t>
   </si>
   <si>
+    <t>Christie Toledo-Fernandez</t>
+  </si>
+  <si>
+    <t>Christie.Toledo-Fernandez@miamidade.gov</t>
+  </si>
+  <si>
     <t>https://www.miamidade.gov/global/publicrecords/search.page</t>
   </si>
   <si>
-    <t xml:space="preserve">Portal </t>
-  </si>
-  <si>
-    <t>Use portal for fire rescue</t>
+    <t>Portal + Special MDFR Email</t>
+  </si>
+  <si>
+    <t>Use Portal for Fire Rescue + Special MDFR Email Template</t>
   </si>
   <si>
     <t>Miami Gardens</t>
@@ -345,20 +351,41 @@
     <t>*</t>
   </si>
   <si>
-    <t>Public Records (MDFR)</t>
-  </si>
-  <si>
-    <t>Portal (select Fire Rescue)</t>
-  </si>
-  <si>
-    <t>Use Miami-Dade Public Records Center; choose Fire Rescue for incident/inspection reports.</t>
+    <t>Miami Lakes</t>
+  </si>
+  <si>
+    <t>City of Miami Lakes - Building Department</t>
+  </si>
+  <si>
+    <t>Gina M. Inguanzo, Town Clerk/Records Custodian</t>
+  </si>
+  <si>
+    <t>inguanzog@miamilakes-fl.gov</t>
+  </si>
+  <si>
+    <t>https://miamilakes.mycusthelp.com/WEBAPP/_rs/(S(no0ibw4xhm1n01pqrtygxfwr))/supporthome.aspx</t>
+  </si>
+  <si>
+    <t>Portal (Select Building Permits)</t>
+  </si>
+  <si>
+    <t>City of Miami Lakes - Planning Department</t>
+  </si>
+  <si>
+    <t>Portal (Select Planning &amp; Zoning)</t>
+  </si>
+  <si>
+    <t>City of Miami Lakes - Environmental Department</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -409,6 +436,12 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -438,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -466,6 +499,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1347,16 +1383,20 @@
       <c r="D21" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="E21" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="G21" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>20</v>
@@ -1370,28 +1410,28 @@
         <v>78</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>20</v>
@@ -1405,28 +1445,28 @@
         <v>78</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="I23" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>20</v>
@@ -1440,26 +1480,26 @@
         <v>78</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>20</v>
@@ -1473,7 +1513,7 @@
         <v>78</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>32</v>
@@ -1481,18 +1521,20 @@
       <c r="D25" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" s="10"/>
+      <c r="E25" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="G25" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>111</v>
+        <v>95</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="J25" s="10" t="s">
         <v>20</v>
@@ -1515,6 +1557,109 @@
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
@@ -2516,10 +2661,13 @@
     <hyperlink r:id="rId16" ref="G23"/>
     <hyperlink r:id="rId17" ref="G24"/>
     <hyperlink r:id="rId18" ref="G25"/>
+    <hyperlink r:id="rId19" ref="G26"/>
+    <hyperlink r:id="rId20" ref="G27"/>
+    <hyperlink r:id="rId21" ref="G28"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId19"/>
+  <drawing r:id="rId22"/>
 </worksheet>
 </file>
--- a/data/master.xlsx
+++ b/data/master.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="U4phjW+9dW+PlHYo8/jcYdho+MQ//z2yZfLsle8YJpM="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Zd3IBcznrsg183IXPLA7COkIkWM73iIKRpokv/eC6b4="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="132">
   <si>
     <t>County</t>
   </si>
@@ -126,6 +126,48 @@
     <t>fire@rivierabeach.org</t>
   </si>
   <si>
+    <t>Boynton Beach</t>
+  </si>
+  <si>
+    <t>Boynton Beach Building Division</t>
+  </si>
+  <si>
+    <t>https://boyntonbeachfl.mycusthelp.com/WEBAPP/_rs/(S(grztt2kh4fy0zchy4lqoj4oa))/RequestOpen.aspx?rqst=66</t>
+  </si>
+  <si>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>Select Building Divison</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>Boynton Beach Planning &amp; Zoning</t>
+  </si>
+  <si>
+    <t>Select Planning &amp; Zoning</t>
+  </si>
+  <si>
+    <t>Florida Department Of Health</t>
+  </si>
+  <si>
+    <t>https://fdh.mycusthelp.com/WEBAPP/_rs/(S(4aqjv0r34jlcqkt3cmwex033))/SupportHome.aspx?sSessionID=206170212118JIQMTBSSGWRDVANRIWFAXGJXHY[I</t>
+  </si>
+  <si>
+    <t>FDH Portal</t>
+  </si>
+  <si>
+    <t>Use Environmental Email Template</t>
+  </si>
+  <si>
+    <t>Boynton Beach Fire Rescue</t>
+  </si>
+  <si>
+    <t>Select Fire Rescue</t>
+  </si>
+  <si>
     <t>Lee</t>
   </si>
   <si>
@@ -189,9 +231,6 @@
     <t>https://fortmyers.mycusthelp.com/WEBAPP/_rs/(S(bydyqdkq3a4x5w4hxftxzzro))/RequestLogin.aspx?sSessionID=&amp;rqst=30&amp;target=ZwpfxNlipoMF2Ut+o/ukfVBzG+KwiVYui6tQ4jBaoyEbXnRUsppuaM9gxkGUAiqmY6bx2x6s+8GPrd0Llw+EPhizz6Hs8jVNfkAsIs+6AqG0aZ9sL0tMHkEdYrKJLPUVZ+7kk+92n5wQ/f/lJbyGLQ==</t>
   </si>
   <si>
-    <t>Portal</t>
-  </si>
-  <si>
     <t>Use portal + All-in-one email</t>
   </si>
   <si>
@@ -243,9 +282,6 @@
     <t>Monroe County Environmental Department</t>
   </si>
   <si>
-    <t>2025-08-18</t>
-  </si>
-  <si>
     <t>Monroe County Fire Department</t>
   </si>
   <si>
@@ -345,9 +381,6 @@
     <t>Public records portal; City Clerk is custodian</t>
   </si>
   <si>
-    <t>Florida Department Of Health</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -378,14 +411,14 @@
     <t>City of Miami Lakes - Environmental Department</t>
   </si>
   <si>
-    <t>d</t>
+    <t>Portal (Select Other)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -407,6 +440,19 @@
       <sz val="11.0"/>
       <color theme="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
@@ -471,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -480,27 +526,36 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -891,780 +946,894 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="I6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="J6" s="2"/>
+      <c r="K6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="2" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="J7" s="2"/>
+      <c r="K7" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="H8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="I8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="J8" s="2"/>
+      <c r="K8" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>53</v>
+      <c r="J9" s="2"/>
+      <c r="K9" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="G10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>59</v>
+      <c r="K10" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>58</v>
+      <c r="G11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>61</v>
+      <c r="K11" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>63</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>58</v>
+      <c r="I13" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>65</v>
+      <c r="K13" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="C15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="6" t="s">
+      <c r="H15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K15" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="J16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="6" t="s">
+      <c r="D19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="K19" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="6" t="s">
+      <c r="D20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="K20" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="6" t="s">
+      <c r="D21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="K21" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="6" t="s">
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="B22" s="2" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="s">
-        <v>78</v>
+      <c r="A23" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="s">
-        <v>78</v>
+      <c r="A24" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="3" t="s">
+      <c r="D24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="G24" s="11"/>
+      <c r="H24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="H26" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="2" t="s">
         <v>116</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="5" t="s">
-        <v>75</v>
+      <c r="K26" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>111</v>
+      <c r="A27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F27" s="6" t="s">
+      <c r="E27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="H27" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>118</v>
+      <c r="I27" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="5" t="s">
-        <v>75</v>
+      <c r="K27" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="A28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" s="6" t="s">
+      <c r="D28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="I28" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
+      <c r="K28" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1"/>
     <row r="39" ht="15.75" customHeight="1"/>
@@ -2641,33 +2810,41 @@
     <row r="1010" ht="15.75" customHeight="1"/>
     <row r="1011" ht="15.75" customHeight="1"/>
     <row r="1012" ht="15.75" customHeight="1"/>
+    <row r="1013" ht="15.75" customHeight="1"/>
+    <row r="1014" ht="15.75" customHeight="1"/>
+    <row r="1015" ht="15.75" customHeight="1"/>
+    <row r="1016" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="G2"/>
     <hyperlink r:id="rId2" ref="G3"/>
     <hyperlink r:id="rId3" ref="G6"/>
     <hyperlink r:id="rId4" ref="G7"/>
-    <hyperlink r:id="rId5" ref="G9"/>
-    <hyperlink r:id="rId6" ref="G10"/>
-    <hyperlink r:id="rId7" ref="G11"/>
-    <hyperlink r:id="rId8" ref="G12"/>
+    <hyperlink r:id="rId5" ref="G8"/>
+    <hyperlink r:id="rId6" ref="G9"/>
+    <hyperlink r:id="rId7" ref="G10"/>
+    <hyperlink r:id="rId8" ref="G11"/>
     <hyperlink r:id="rId9" ref="G13"/>
     <hyperlink r:id="rId10" ref="G14"/>
     <hyperlink r:id="rId11" ref="G15"/>
     <hyperlink r:id="rId12" ref="G16"/>
     <hyperlink r:id="rId13" ref="G17"/>
-    <hyperlink r:id="rId14" ref="G21"/>
-    <hyperlink r:id="rId15" ref="G22"/>
-    <hyperlink r:id="rId16" ref="G23"/>
-    <hyperlink r:id="rId17" ref="G24"/>
+    <hyperlink r:id="rId14" ref="G18"/>
+    <hyperlink r:id="rId15" ref="G19"/>
+    <hyperlink r:id="rId16" ref="G20"/>
+    <hyperlink r:id="rId17" ref="G21"/>
     <hyperlink r:id="rId18" ref="G25"/>
     <hyperlink r:id="rId19" ref="G26"/>
     <hyperlink r:id="rId20" ref="G27"/>
     <hyperlink r:id="rId21" ref="G28"/>
+    <hyperlink r:id="rId22" ref="G29"/>
+    <hyperlink r:id="rId23" ref="G30"/>
+    <hyperlink r:id="rId24" ref="G31"/>
+    <hyperlink r:id="rId25" ref="G32"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId22"/>
+  <drawing r:id="rId26"/>
 </worksheet>
 </file>
--- a/data/master.xlsx
+++ b/data/master.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Zd3IBcznrsg183IXPLA7COkIkWM73iIKRpokv/eC6b4="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="iaQLmpZlb0FqzfyMG+Zou4HhnPcAso87UDabZE7ZO9w="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="124">
   <si>
     <t>County</t>
   </si>
@@ -63,150 +63,138 @@
     <t>City of Riviera Beach – Building &amp; Permits</t>
   </si>
   <si>
-    <t>Grace Joyce / Clarece Hayes</t>
-  </si>
-  <si>
-    <t>gjoyce@rivierabeach.org, chayes@rivierabeach.org</t>
+    <t>City Clerk</t>
+  </si>
+  <si>
+    <t>cityclerk@rivierabeach.org</t>
   </si>
   <si>
     <t>https://www.rivierabch.com/clerk/records-request</t>
   </si>
   <si>
-    <t>Email or Clerk</t>
-  </si>
-  <si>
-    <t>Use Clerk for official records; include APN</t>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>Green Next Button -&gt; Standard Public Records</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>2025-08-06</t>
+  </si>
+  <si>
+    <t>planning</t>
+  </si>
+  <si>
+    <t>City of Riviera Beach – Planning &amp; Zoning</t>
+  </si>
+  <si>
+    <t>environmental</t>
+  </si>
+  <si>
+    <t>Use FDOH or Palm Beach ERM</t>
+  </si>
+  <si>
+    <t>https://fdh.mycusthelp.com/WEBAPP/_rs/(S(m0bilwag4kyanm5bn1a4hvlu))/SupportHome.aspx?sSessionID=206170212118JIQMTBSSGWRDVANRIWFAXGJXHY[I</t>
+  </si>
+  <si>
+    <t>FDOH Portal / PBC ERM Portal</t>
+  </si>
+  <si>
+    <t>PBC ERM Portal: https://www.pbcgov.org/eprr/erm</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>Riviera Beach Fire Rescue</t>
+  </si>
+  <si>
+    <t>Chief / Records</t>
+  </si>
+  <si>
+    <t>fire@rivierabeach.org</t>
+  </si>
+  <si>
+    <t>Email Fire Rescue</t>
+  </si>
+  <si>
+    <t>Boynton Beach</t>
+  </si>
+  <si>
+    <t>Boynton Beach Building Division</t>
+  </si>
+  <si>
+    <t>https://boyntonbeachfl.mycusthelp.com/WEBAPP/_rs/(S(grztt2kh4fy0zchy4lqoj4oa))/RequestOpen.aspx?rqst=66</t>
+  </si>
+  <si>
+    <t>Select Building Divison</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>Boynton Beach Planning &amp; Zoning</t>
+  </si>
+  <si>
+    <t>Select Planning &amp; Zoning</t>
+  </si>
+  <si>
+    <t>https://fdh.mycusthelp.com/WEBAPP/_rs/(S(4aqjv0r34jlcqkt3cmwex033))/SupportHome.aspx?sSessionID=206170212118JIQMTBSSGWRDVANRIWFAXGJXHY[I</t>
+  </si>
+  <si>
+    <t>Boynton Beach Fire Rescue</t>
+  </si>
+  <si>
+    <t>Select Fire Rescue</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>unincorporated</t>
+  </si>
+  <si>
+    <t>Lee County Community Development – Permits</t>
+  </si>
+  <si>
+    <t>DCD Permitting</t>
+  </si>
+  <si>
+    <t>eConnect@leegov.com</t>
+  </si>
+  <si>
+    <t>https://aca-prod.accela.com/LEECO/Default.aspx</t>
+  </si>
+  <si>
+    <t>Portal + Email</t>
+  </si>
+  <si>
+    <t>Accela permit lookup</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>2025-08-06</t>
-  </si>
-  <si>
-    <t>planning</t>
-  </si>
-  <si>
-    <t>City of Riviera Beach – Planning &amp; Zoning</t>
-  </si>
-  <si>
-    <t>City Clerk</t>
-  </si>
-  <si>
-    <t>cityclerk@rivierabeach.org</t>
-  </si>
-  <si>
-    <t>Clerk</t>
-  </si>
-  <si>
-    <t>environmental</t>
-  </si>
-  <si>
-    <t>FL DOH — Palm Beach (Env. Health)</t>
+    <t>Lee County DCD – Planning/Zoning</t>
+  </si>
+  <si>
+    <t>DCD Planning</t>
+  </si>
+  <si>
+    <t>DCDRecords@leegov.com</t>
+  </si>
+  <si>
+    <t>https://www.leegov.com/dcd/reports</t>
+  </si>
+  <si>
+    <t>FL DOH — Lee (Env. Health)</t>
   </si>
   <si>
     <t>Environmental Health</t>
   </si>
   <si>
-    <t>palmbeacheh@flhealth.gov</t>
-  </si>
-  <si>
-    <t>Septic/well/UST</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
-    <t>Riviera Beach Fire Rescue</t>
-  </si>
-  <si>
-    <t>Chief / Records</t>
-  </si>
-  <si>
-    <t>fire@rivierabeach.org</t>
-  </si>
-  <si>
-    <t>Boynton Beach</t>
-  </si>
-  <si>
-    <t>Boynton Beach Building Division</t>
-  </si>
-  <si>
-    <t>https://boyntonbeachfl.mycusthelp.com/WEBAPP/_rs/(S(grztt2kh4fy0zchy4lqoj4oa))/RequestOpen.aspx?rqst=66</t>
-  </si>
-  <si>
-    <t>Portal</t>
-  </si>
-  <si>
-    <t>Select Building Divison</t>
-  </si>
-  <si>
-    <t>2025-08-18</t>
-  </si>
-  <si>
-    <t>Boynton Beach Planning &amp; Zoning</t>
-  </si>
-  <si>
-    <t>Select Planning &amp; Zoning</t>
-  </si>
-  <si>
-    <t>Florida Department Of Health</t>
-  </si>
-  <si>
-    <t>https://fdh.mycusthelp.com/WEBAPP/_rs/(S(4aqjv0r34jlcqkt3cmwex033))/SupportHome.aspx?sSessionID=206170212118JIQMTBSSGWRDVANRIWFAXGJXHY[I</t>
-  </si>
-  <si>
-    <t>FDH Portal</t>
-  </si>
-  <si>
-    <t>Use Environmental Email Template</t>
-  </si>
-  <si>
-    <t>Boynton Beach Fire Rescue</t>
-  </si>
-  <si>
-    <t>Select Fire Rescue</t>
-  </si>
-  <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>unincorporated</t>
-  </si>
-  <si>
-    <t>Lee County Community Development – Permits</t>
-  </si>
-  <si>
-    <t>DCD Permitting</t>
-  </si>
-  <si>
-    <t>eConnect@leegov.com</t>
-  </si>
-  <si>
-    <t>https://aca-prod.accela.com/LEECO/Default.aspx</t>
-  </si>
-  <si>
-    <t>Portal + Email</t>
-  </si>
-  <si>
-    <t>Accela permit lookup</t>
-  </si>
-  <si>
-    <t>Lee County DCD – Planning/Zoning</t>
-  </si>
-  <si>
-    <t>DCD Planning</t>
-  </si>
-  <si>
-    <t>DCDRecords@leegov.com</t>
-  </si>
-  <si>
-    <t>https://www.leegov.com/dcd/reports</t>
-  </si>
-  <si>
-    <t>FL DOH — Lee (Env. Health)</t>
-  </si>
-  <si>
     <t>leeeh@flhealth.gov</t>
   </si>
   <si>
@@ -300,7 +288,10 @@
     <t>bldgdept@miamidade.gov</t>
   </si>
   <si>
-    <t>Use email for building department</t>
+    <t>https://miamidadecounty.govqa.us/WEBAPP/_rs/(S(vcgebaolranwuuj2uiqutnes))/RequestSelect.aspx?sSessionID=206170212118:35498EAHIOTOEGXZVNDLBQVFUPJ</t>
+  </si>
+  <si>
+    <t>Select Transportation &amp; Public Works</t>
   </si>
   <si>
     <t>Miami-Dade RER — Development Services &amp; Zoning</t>
@@ -312,12 +303,6 @@
     <t>cocpubreq@miamidade.gov</t>
   </si>
   <si>
-    <t>Clerk Email</t>
-  </si>
-  <si>
-    <t>Use Clerk email for zoning and plans</t>
-  </si>
-  <si>
     <t>Department of Environmental Resources Management</t>
   </si>
   <si>
@@ -327,7 +312,34 @@
     <t>DermRecords@miamidade.gov</t>
   </si>
   <si>
-    <t>Email DERM for environmental records</t>
+    <t>Miami Gardens</t>
+  </si>
+  <si>
+    <t>City of Miami Gardens — Building Services</t>
+  </si>
+  <si>
+    <t>Mario Bataille, CMC, City Clerk</t>
+  </si>
+  <si>
+    <t>recordsrequest@miamigardens-fl.gov</t>
+  </si>
+  <si>
+    <t>https://miamigardensfl.justfoia.com/publicportal</t>
+  </si>
+  <si>
+    <t>Clerk Portal + Email (All-in-one)</t>
+  </si>
+  <si>
+    <t>Public records portal; City Clerk is custodian</t>
+  </si>
+  <si>
+    <t>City of Miami Gardens — Planning &amp; Zoning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City of Miami Gardens — Environmental </t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
   <si>
     <t>Miami-Dade Fire Rescue — Public Records</t>
@@ -346,42 +358,6 @@
   </si>
   <si>
     <t>Use Portal for Fire Rescue + Special MDFR Email Template</t>
-  </si>
-  <si>
-    <t>Miami Gardens</t>
-  </si>
-  <si>
-    <t>City of Miami Gardens — Building Services</t>
-  </si>
-  <si>
-    <t>Osvaldo (Ozzie) Diaz, Building Official</t>
-  </si>
-  <si>
-    <t>odiaz@miamigardens-fl.gov, buildingpermitquestions@miamigardens-fl.gov</t>
-  </si>
-  <si>
-    <t>https://miamigardensfl.justfoia.com/publicportal</t>
-  </si>
-  <si>
-    <t>Clerk Portal + Email (All-in-one)</t>
-  </si>
-  <si>
-    <t>Custodian of Records: City Clerk; public records via JustFOIA</t>
-  </si>
-  <si>
-    <t>City of Miami Gardens — Planning &amp; Zoning</t>
-  </si>
-  <si>
-    <t>Planning &amp; Zoning Division</t>
-  </si>
-  <si>
-    <t>zoninginfo@miamigardens-fl.gov</t>
-  </si>
-  <si>
-    <t>Public records portal; City Clerk is custodian</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
   <si>
     <t>Miami Lakes</t>
@@ -418,7 +394,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -443,7 +419,9 @@
     </font>
     <font>
       <u/>
+      <sz val="11.0"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <color theme="1"/>
@@ -456,19 +434,12 @@
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <u/>
       <sz val="11.0"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="10"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -517,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -525,37 +496,36 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -836,22 +806,22 @@
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -872,18 +842,21 @@
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -898,22 +871,24 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>31</v>
+      <c r="J4" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -924,173 +899,174 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="I5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>37</v>
+      <c r="D6" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="4" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="7" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>44</v>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>46</v>
+      <c r="G8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="7" t="s">
-        <v>41</v>
+      <c r="K8" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>48</v>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>21</v>
@@ -1098,31 +1074,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>21</v>
@@ -1130,710 +1106,682 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="I12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="I13" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>52</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>73</v>
+      <c r="D15" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>75</v>
+        <v>44</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>71</v>
+        <v>15</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>76</v>
+        <v>52</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="D20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="s">
+      <c r="G20" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="7" t="s">
+      <c r="H20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="s">
+      <c r="E21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="H21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="7" t="s">
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="J22" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="s">
-        <v>90</v>
+      <c r="A23" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="4" t="s">
+      <c r="G24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="4" t="s">
+      <c r="H25" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="I25" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="J25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="E26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="E27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="C28" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="E28" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="F28" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="G28" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="D29" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I26" s="2" t="s">
+      <c r="C30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="F30" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="G30" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="H30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="E31" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="J31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
+        <v>52</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1"/>
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1"/>
     <row r="39" ht="15.75" customHeight="1"/>
@@ -2813,38 +2761,40 @@
     <row r="1013" ht="15.75" customHeight="1"/>
     <row r="1014" ht="15.75" customHeight="1"/>
     <row r="1015" ht="15.75" customHeight="1"/>
-    <row r="1016" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="G2"/>
     <hyperlink r:id="rId2" ref="G3"/>
-    <hyperlink r:id="rId3" ref="G6"/>
-    <hyperlink r:id="rId4" ref="G7"/>
-    <hyperlink r:id="rId5" ref="G8"/>
-    <hyperlink r:id="rId6" ref="G9"/>
-    <hyperlink r:id="rId7" ref="G10"/>
-    <hyperlink r:id="rId8" ref="G11"/>
-    <hyperlink r:id="rId9" ref="G13"/>
-    <hyperlink r:id="rId10" ref="G14"/>
-    <hyperlink r:id="rId11" ref="G15"/>
-    <hyperlink r:id="rId12" ref="G16"/>
-    <hyperlink r:id="rId13" ref="G17"/>
-    <hyperlink r:id="rId14" ref="G18"/>
-    <hyperlink r:id="rId15" ref="G19"/>
-    <hyperlink r:id="rId16" ref="G20"/>
-    <hyperlink r:id="rId17" ref="G21"/>
-    <hyperlink r:id="rId18" ref="G25"/>
-    <hyperlink r:id="rId19" ref="G26"/>
-    <hyperlink r:id="rId20" ref="G27"/>
-    <hyperlink r:id="rId21" ref="G28"/>
-    <hyperlink r:id="rId22" ref="G29"/>
-    <hyperlink r:id="rId23" ref="G30"/>
-    <hyperlink r:id="rId24" ref="G31"/>
-    <hyperlink r:id="rId25" ref="G32"/>
+    <hyperlink r:id="rId3" ref="G4"/>
+    <hyperlink r:id="rId4" ref="G6"/>
+    <hyperlink r:id="rId5" ref="G7"/>
+    <hyperlink r:id="rId6" ref="G8"/>
+    <hyperlink r:id="rId7" ref="G9"/>
+    <hyperlink r:id="rId8" ref="G10"/>
+    <hyperlink r:id="rId9" ref="G11"/>
+    <hyperlink r:id="rId10" ref="G13"/>
+    <hyperlink r:id="rId11" ref="G14"/>
+    <hyperlink r:id="rId12" ref="G15"/>
+    <hyperlink r:id="rId13" ref="G16"/>
+    <hyperlink r:id="rId14" ref="G17"/>
+    <hyperlink r:id="rId15" ref="G18"/>
+    <hyperlink r:id="rId16" ref="G19"/>
+    <hyperlink r:id="rId17" ref="G20"/>
+    <hyperlink r:id="rId18" ref="G21"/>
+    <hyperlink r:id="rId19" ref="G22"/>
+    <hyperlink r:id="rId20" ref="G23"/>
+    <hyperlink r:id="rId21" ref="G24"/>
+    <hyperlink r:id="rId22" ref="G25"/>
+    <hyperlink r:id="rId23" ref="G26"/>
+    <hyperlink r:id="rId24" ref="G27"/>
+    <hyperlink r:id="rId25" ref="G28"/>
+    <hyperlink r:id="rId26" ref="G29"/>
+    <hyperlink r:id="rId27" ref="G30"/>
+    <hyperlink r:id="rId28" ref="G31"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId26"/>
+  <drawing r:id="rId29"/>
 </worksheet>
 </file>
--- a/data/master.xlsx
+++ b/data/master.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="iaQLmpZlb0FqzfyMG+Zou4HhnPcAso87UDabZE7ZO9w="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="UIqTtWJawjHQqzLlXXwtdL5acxW1sIxDB+A6r3XZWp0="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="152">
   <si>
     <t>County</t>
   </si>
@@ -93,16 +93,32 @@
     <t>environmental</t>
   </si>
   <si>
-    <t>Use FDOH or Palm Beach ERM</t>
-  </si>
-  <si>
-    <t>https://fdh.mycusthelp.com/WEBAPP/_rs/(S(m0bilwag4kyanm5bn1a4hvlu))/SupportHome.aspx?sSessionID=206170212118JIQMTBSSGWRDVANRIWFAXGJXHY[I</t>
-  </si>
-  <si>
-    <t>FDOH Portal / PBC ERM Portal</t>
-  </si>
-  <si>
-    <t>PBC ERM Portal: https://www.pbcgov.org/eprr/erm</t>
+    <t>Use Palm Beach County ERM</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.pbcgov.org/eprr/erm</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF0000FF"/>
+        <u/>
+      </rPr>
+      <t>m</t>
+    </r>
+  </si>
+  <si>
+    <t>PBC ERM Portal</t>
+  </si>
+  <si>
+    <t>PBC ERM Portal. If doesn't work, use FDH</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
   <si>
     <t>fire</t>
@@ -141,7 +157,20 @@
     <t>Select Planning &amp; Zoning</t>
   </si>
   <si>
-    <t>https://fdh.mycusthelp.com/WEBAPP/_rs/(S(4aqjv0r34jlcqkt3cmwex033))/SupportHome.aspx?sSessionID=206170212118JIQMTBSSGWRDVANRIWFAXGJXHY[I</t>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.pbcgov.org/eprr/erm</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF0000FF"/>
+        <u/>
+      </rPr>
+      <t>m</t>
+    </r>
   </si>
   <si>
     <t>Boynton Beach Fire Rescue</t>
@@ -174,9 +203,6 @@
     <t>Accela permit lookup</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Lee County DCD – Planning/Zoning</t>
   </si>
   <si>
@@ -324,6 +350,18 @@
     <t>recordsrequest@miamigardens-fl.gov</t>
   </si>
   <si>
+    <t>https://trakit.miamilakes-fl.gov/etrakit/Search/permit.aspx</t>
+  </si>
+  <si>
+    <t>Use portal to search for building permits</t>
+  </si>
+  <si>
+    <t>Search by FOLIO/APN (no dashes)</t>
+  </si>
+  <si>
+    <t>City of Miami Gardens — Planning &amp; Zoning</t>
+  </si>
+  <si>
     <t>https://miamigardensfl.justfoia.com/publicportal</t>
   </si>
   <si>
@@ -333,9 +371,6 @@
     <t>Public records portal; City Clerk is custodian</t>
   </si>
   <si>
-    <t>City of Miami Gardens — Planning &amp; Zoning</t>
-  </si>
-  <si>
     <t xml:space="preserve">City of Miami Gardens — Environmental </t>
   </si>
   <si>
@@ -388,6 +423,81 @@
   </si>
   <si>
     <t>Portal (Select Other)</t>
+  </si>
+  <si>
+    <t>Miami Beach</t>
+  </si>
+  <si>
+    <t>City of Miami Beach Building Department</t>
+  </si>
+  <si>
+    <t>researchrequest@miamibeachfl.gov</t>
+  </si>
+  <si>
+    <t>https://miamibeachfl.justfoia.com/publicportal/home/newrequest</t>
+  </si>
+  <si>
+    <t>Use Miami Beach JUSTFOIA Portal</t>
+  </si>
+  <si>
+    <t>City of Miami Beach Planning Department</t>
+  </si>
+  <si>
+    <t>City of Miami Beach Environmental Department</t>
+  </si>
+  <si>
+    <t>City of Miami Beach Fire Rescue</t>
+  </si>
+  <si>
+    <t>Portal (Not MDFR)</t>
+  </si>
+  <si>
+    <t>Use Miami Beach JUSTFOIA Portal (No Special MDFR EMAIL)</t>
+  </si>
+  <si>
+    <t>Doral</t>
+  </si>
+  <si>
+    <t>City of Doral Building Department</t>
+  </si>
+  <si>
+    <t>https://us.openforms.com/Form/ef5b0b78-c7b6-4c25-9cb3-0c2a114fa72c</t>
+  </si>
+  <si>
+    <t>Use OpenForms Request Portal for Doral + Special MDFR Email Template</t>
+  </si>
+  <si>
+    <t>City of Doral Planning Department</t>
+  </si>
+  <si>
+    <t>City of Doral Environmental Department</t>
+  </si>
+  <si>
+    <t>Broward</t>
+  </si>
+  <si>
+    <t>Pompano Beach</t>
+  </si>
+  <si>
+    <t>Pompano Beach Building Department</t>
+  </si>
+  <si>
+    <t>https://pompanobeachfl.justfoia.com/publicportal/home/newrequest</t>
+  </si>
+  <si>
+    <t>Portal (New Request)</t>
+  </si>
+  <si>
+    <t>Use Pompano Beach JUSTFOIA Portal + All-in-one email</t>
+  </si>
+  <si>
+    <t>Pompano Beach Planning Department</t>
+  </si>
+  <si>
+    <t>Pompano Beach Environmental Department</t>
+  </si>
+  <si>
+    <t>Pompano Beach Fire Department</t>
   </si>
 </sst>
 </file>
@@ -888,7 +998,7 @@
         <v>28</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +1009,22 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
@@ -926,28 +1036,28 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
@@ -955,38 +1065,38 @@
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -995,17 +1105,16 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="9" t="s">
-        <v>38</v>
+      <c r="J8" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -1013,60 +1122,60 @@
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>21</v>
@@ -1074,10 +1183,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
@@ -1098,7 +1207,7 @@
         <v>5</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>21</v>
@@ -1106,10 +1215,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
@@ -1130,13 +1239,13 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>60</v>
@@ -1148,13 +1257,13 @@
         <v>61</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>62</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>63</v>
@@ -1162,7 +1271,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>64</v>
@@ -1186,7 +1295,7 @@
         <v>67</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>68</v>
@@ -1194,7 +1303,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>64</v>
@@ -1218,7 +1327,7 @@
         <v>67</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>70</v>
@@ -1226,7 +1335,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>64</v>
@@ -1250,7 +1359,7 @@
         <v>67</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>72</v>
@@ -1258,13 +1367,13 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>73</v>
@@ -1282,7 +1391,7 @@
         <v>67</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>74</v>
@@ -1314,7 +1423,7 @@
         <v>67</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>80</v>
@@ -1346,7 +1455,7 @@
         <v>67</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>82</v>
@@ -1378,10 +1487,10 @@
         <v>67</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1501,7 @@
         <v>76</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>84</v>
@@ -1410,7 +1519,7 @@
         <v>67</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>85</v>
@@ -1421,7 +1530,7 @@
         <v>86</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
@@ -1445,7 +1554,7 @@
         <v>91</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>63</v>
@@ -1456,7 +1565,7 @@
         <v>86</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>22</v>
@@ -1480,7 +1589,7 @@
         <v>91</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>63</v>
@@ -1491,7 +1600,7 @@
         <v>86</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>24</v>
@@ -1515,7 +1624,7 @@
         <v>91</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>63</v>
@@ -1540,7 +1649,7 @@
       <c r="F25" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="5" t="s">
         <v>102</v>
       </c>
       <c r="H25" s="3" t="s">
@@ -1550,7 +1659,7 @@
         <v>104</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>63</v>
@@ -1576,16 +1685,16 @@
         <v>101</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>63</v>
@@ -1602,7 +1711,7 @@
         <v>24</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>100</v>
@@ -1611,16 +1720,16 @@
         <v>101</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>63</v>
@@ -1631,31 +1740,31 @@
         <v>86</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C28" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J28" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>52</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>63</v>
@@ -1681,34 +1790,34 @@
         <v>86</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30">
@@ -1716,34 +1825,34 @@
         <v>86</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="G30" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31">
@@ -1751,43 +1860,325 @@
         <v>86</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
     <row r="43" ht="15.75" customHeight="1"/>
     <row r="44" ht="15.75" customHeight="1"/>
     <row r="45" ht="15.75" customHeight="1"/>
@@ -2761,6 +3152,13 @@
     <row r="1013" ht="15.75" customHeight="1"/>
     <row r="1014" ht="15.75" customHeight="1"/>
     <row r="1015" ht="15.75" customHeight="1"/>
+    <row r="1016" ht="15.75" customHeight="1"/>
+    <row r="1017" ht="15.75" customHeight="1"/>
+    <row r="1018" ht="15.75" customHeight="1"/>
+    <row r="1019" ht="15.75" customHeight="1"/>
+    <row r="1020" ht="15.75" customHeight="1"/>
+    <row r="1021" ht="15.75" customHeight="1"/>
+    <row r="1022" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="G2"/>
@@ -2791,10 +3189,21 @@
     <hyperlink r:id="rId26" ref="G29"/>
     <hyperlink r:id="rId27" ref="G30"/>
     <hyperlink r:id="rId28" ref="G31"/>
+    <hyperlink r:id="rId29" ref="G32"/>
+    <hyperlink r:id="rId30" ref="G33"/>
+    <hyperlink r:id="rId31" ref="G34"/>
+    <hyperlink r:id="rId32" ref="G35"/>
+    <hyperlink r:id="rId33" ref="G36"/>
+    <hyperlink r:id="rId34" ref="G37"/>
+    <hyperlink r:id="rId35" ref="G38"/>
+    <hyperlink r:id="rId36" ref="G39"/>
+    <hyperlink r:id="rId37" ref="G40"/>
+    <hyperlink r:id="rId38" ref="G41"/>
+    <hyperlink r:id="rId39" ref="G42"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId29"/>
+  <drawing r:id="rId40"/>
 </worksheet>
 </file>
--- a/data/master.xlsx
+++ b/data/master.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="161">
   <si>
     <t>County</t>
   </si>
@@ -212,7 +212,7 @@
     <t>DCDRecords@leegov.com</t>
   </si>
   <si>
-    <t>https://www.leegov.com/dcd/reports</t>
+    <t>https://prr-leecountyclerkfl.mycusthelp.com/WEBAPP/_rs/(S(kohsbnoigkzd1o244avloxxo))/requestselect.aspx</t>
   </si>
   <si>
     <t>FL DOH — Lee (Env. Health)</t>
@@ -317,7 +317,21 @@
     <t>https://miamidadecounty.govqa.us/WEBAPP/_rs/(S(vcgebaolranwuuj2uiqutnes))/RequestSelect.aspx?sSessionID=206170212118:35498EAHIOTOEGXZVNDLBQVFUPJ</t>
   </si>
   <si>
-    <t>Select Transportation &amp; Public Works</t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Check for permits here: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://wwwx.miamidade.gov/Apps/RER/ePermittingMenu/Home/Permits</t>
+    </r>
   </si>
   <si>
     <t>Miami-Dade RER — Development Services &amp; Zoning</t>
@@ -329,6 +343,9 @@
     <t>cocpubreq@miamidade.gov</t>
   </si>
   <si>
+    <t>Regulatory and Economic Resources</t>
+  </si>
+  <si>
     <t>Department of Environmental Resources Management</t>
   </si>
   <si>
@@ -386,13 +403,7 @@
     <t>Christie.Toledo-Fernandez@miamidade.gov</t>
   </si>
   <si>
-    <t>https://www.miamidade.gov/global/publicrecords/search.page</t>
-  </si>
-  <si>
-    <t>Portal + Special MDFR Email</t>
-  </si>
-  <si>
-    <t>Use Portal for Fire Rescue + Special MDFR Email Template</t>
+    <t>Direct E-MAIL: Special MDFR Email</t>
   </si>
   <si>
     <t>Miami Lakes</t>
@@ -437,7 +448,7 @@
     <t>https://miamibeachfl.justfoia.com/publicportal/home/newrequest</t>
   </si>
   <si>
-    <t>Use Miami Beach JUSTFOIA Portal</t>
+    <t>Use Miami Beach JUSTFOIA Portal + All-in-one Email</t>
   </si>
   <si>
     <t>City of Miami Beach Planning Department</t>
@@ -461,15 +472,24 @@
     <t>City of Doral Building Department</t>
   </si>
   <si>
+    <t>BuildingRecordsClerk@cityofdoral.com</t>
+  </si>
+  <si>
+    <t>https://doralfl-energovweb.tylerhost.net/apps/SelfService#/home</t>
+  </si>
+  <si>
+    <t>Email or Search Yourself</t>
+  </si>
+  <si>
+    <t>Use OpenForms Request Portal for Doral + Special MDFR Email Template</t>
+  </si>
+  <si>
+    <t>City of Doral Planning Department</t>
+  </si>
+  <si>
     <t>https://us.openforms.com/Form/ef5b0b78-c7b6-4c25-9cb3-0c2a114fa72c</t>
   </si>
   <si>
-    <t>Use OpenForms Request Portal for Doral + Special MDFR Email Template</t>
-  </si>
-  <si>
-    <t>City of Doral Planning Department</t>
-  </si>
-  <si>
     <t>City of Doral Environmental Department</t>
   </si>
   <si>
@@ -498,6 +518,27 @@
   </si>
   <si>
     <t>Pompano Beach Fire Department</t>
+  </si>
+  <si>
+    <t>Coral Springs</t>
+  </si>
+  <si>
+    <t>Coral Springs Building Department</t>
+  </si>
+  <si>
+    <t>https://coralspringsfl.justfoia.com/publicportal/home/newrequest</t>
+  </si>
+  <si>
+    <t>Use Portal</t>
+  </si>
+  <si>
+    <t>Coral Springs Planning Department</t>
+  </si>
+  <si>
+    <t>Coral Springs Environmental Department</t>
+  </si>
+  <si>
+    <t>Coral Springs Fire Department</t>
   </si>
 </sst>
 </file>
@@ -553,14 +594,13 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <u/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
       <sz val="11.0"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -627,10 +667,10 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1165,7 +1205,7 @@
       <c r="F10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>50</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -1200,11 +1240,14 @@
       <c r="F11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>5</v>
+      <c r="H11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>29</v>
@@ -1232,10 +1275,15 @@
       <c r="F12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="2"/>
+      <c r="G12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -1550,7 +1598,7 @@
       <c r="H22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="11" t="s">
         <v>91</v>
       </c>
       <c r="J22" s="2" t="s">
@@ -1586,7 +1634,7 @@
         <v>18</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>29</v>
@@ -1606,13 +1654,13 @@
         <v>24</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>90</v>
@@ -1621,7 +1669,7 @@
         <v>18</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>29</v>
@@ -1635,28 +1683,28 @@
         <v>86</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>29</v>
@@ -1670,28 +1718,28 @@
         <v>86</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>29</v>
@@ -1705,28 +1753,28 @@
         <v>86</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>29</v>
@@ -1736,82 +1784,80 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="12" t="s">
+      <c r="B28" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" s="11" t="s">
+      <c r="D28" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="E28" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="F28" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="G28" s="12"/>
+      <c r="H28" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="I28" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="J28" s="12" t="s">
+      <c r="I28" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J28" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="K28" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>29</v>
@@ -1825,28 +1871,28 @@
         <v>86</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>121</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>29</v>
@@ -1860,28 +1906,28 @@
         <v>86</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>29</v>
@@ -1895,26 +1941,26 @@
         <v>86</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="9"/>
@@ -1924,26 +1970,26 @@
         <v>86</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="9"/>
@@ -1953,26 +1999,26 @@
         <v>86</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="9"/>
@@ -1982,26 +2028,26 @@
         <v>86</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>130</v>
-      </c>
       <c r="H35" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="9"/>
@@ -2011,24 +2057,26 @@
         <v>86</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
       <c r="G36" s="5" t="s">
         <v>139</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="9"/>
@@ -2038,24 +2086,24 @@
         <v>86</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="9"/>
@@ -2065,124 +2113,212 @@
         <v>86</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="9"/>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>147</v>
-      </c>
       <c r="I40" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D41" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="I41" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
     <row r="47" ht="15.75" customHeight="1"/>
     <row r="48" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
@@ -3170,40 +3306,45 @@
     <hyperlink r:id="rId7" ref="G9"/>
     <hyperlink r:id="rId8" ref="G10"/>
     <hyperlink r:id="rId9" ref="G11"/>
-    <hyperlink r:id="rId10" ref="G13"/>
-    <hyperlink r:id="rId11" ref="G14"/>
-    <hyperlink r:id="rId12" ref="G15"/>
-    <hyperlink r:id="rId13" ref="G16"/>
-    <hyperlink r:id="rId14" ref="G17"/>
-    <hyperlink r:id="rId15" ref="G18"/>
-    <hyperlink r:id="rId16" ref="G19"/>
-    <hyperlink r:id="rId17" ref="G20"/>
-    <hyperlink r:id="rId18" ref="G21"/>
-    <hyperlink r:id="rId19" ref="G22"/>
-    <hyperlink r:id="rId20" ref="G23"/>
-    <hyperlink r:id="rId21" ref="G24"/>
-    <hyperlink r:id="rId22" ref="G25"/>
-    <hyperlink r:id="rId23" ref="G26"/>
-    <hyperlink r:id="rId24" ref="G27"/>
-    <hyperlink r:id="rId25" ref="G28"/>
-    <hyperlink r:id="rId26" ref="G29"/>
-    <hyperlink r:id="rId27" ref="G30"/>
-    <hyperlink r:id="rId28" ref="G31"/>
-    <hyperlink r:id="rId29" ref="G32"/>
-    <hyperlink r:id="rId30" ref="G33"/>
-    <hyperlink r:id="rId31" ref="G34"/>
-    <hyperlink r:id="rId32" ref="G35"/>
-    <hyperlink r:id="rId33" ref="G36"/>
-    <hyperlink r:id="rId34" ref="G37"/>
-    <hyperlink r:id="rId35" ref="G38"/>
-    <hyperlink r:id="rId36" ref="G39"/>
-    <hyperlink r:id="rId37" ref="G40"/>
-    <hyperlink r:id="rId38" ref="G41"/>
-    <hyperlink r:id="rId39" ref="G42"/>
+    <hyperlink r:id="rId10" ref="G12"/>
+    <hyperlink r:id="rId11" ref="G13"/>
+    <hyperlink r:id="rId12" ref="G14"/>
+    <hyperlink r:id="rId13" ref="G15"/>
+    <hyperlink r:id="rId14" ref="G16"/>
+    <hyperlink r:id="rId15" ref="G17"/>
+    <hyperlink r:id="rId16" ref="G18"/>
+    <hyperlink r:id="rId17" ref="G19"/>
+    <hyperlink r:id="rId18" ref="G20"/>
+    <hyperlink r:id="rId19" ref="G21"/>
+    <hyperlink r:id="rId20" ref="G22"/>
+    <hyperlink r:id="rId21" ref="I22"/>
+    <hyperlink r:id="rId22" ref="G23"/>
+    <hyperlink r:id="rId23" ref="G24"/>
+    <hyperlink r:id="rId24" ref="G25"/>
+    <hyperlink r:id="rId25" ref="G26"/>
+    <hyperlink r:id="rId26" ref="G27"/>
+    <hyperlink r:id="rId27" ref="G29"/>
+    <hyperlink r:id="rId28" ref="G30"/>
+    <hyperlink r:id="rId29" ref="G31"/>
+    <hyperlink r:id="rId30" ref="G32"/>
+    <hyperlink r:id="rId31" ref="G33"/>
+    <hyperlink r:id="rId32" ref="G34"/>
+    <hyperlink r:id="rId33" ref="G35"/>
+    <hyperlink r:id="rId34" location="/home" ref="G36"/>
+    <hyperlink r:id="rId35" ref="G37"/>
+    <hyperlink r:id="rId36" ref="G38"/>
+    <hyperlink r:id="rId37" ref="G39"/>
+    <hyperlink r:id="rId38" ref="G40"/>
+    <hyperlink r:id="rId39" ref="G41"/>
+    <hyperlink r:id="rId40" ref="G42"/>
+    <hyperlink r:id="rId41" ref="G43"/>
+    <hyperlink r:id="rId42" ref="G44"/>
+    <hyperlink r:id="rId43" ref="G45"/>
+    <hyperlink r:id="rId44" ref="G46"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId40"/>
+  <drawing r:id="rId45"/>
 </worksheet>
 </file>
--- a/data/master.xlsx
+++ b/data/master.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="UIqTtWJawjHQqzLlXXwtdL5acxW1sIxDB+A6r3XZWp0="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="HepqfaTt3GIErvwMaGvwxecBerB+jxMgX+ZFklu+ApU="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="173">
   <si>
     <t>County</t>
   </si>
@@ -212,7 +212,7 @@
     <t>DCDRecords@leegov.com</t>
   </si>
   <si>
-    <t>https://prr-leecountyclerkfl.mycusthelp.com/WEBAPP/_rs/(S(kohsbnoigkzd1o244avloxxo))/requestselect.aspx</t>
+    <t>https://leecountyfl.mycusthelp.com/webapp/_rs/(S(uzjtk0pwrrfwwzgtjo2t1b5f))/supporthome.aspx</t>
   </si>
   <si>
     <t>FL DOH — Lee (Env. Health)</t>
@@ -343,18 +343,27 @@
     <t>cocpubreq@miamidade.gov</t>
   </si>
   <si>
+    <t>https://gisweb.miamidade.gov/landmanagement/</t>
+  </si>
+  <si>
+    <t>Self Lookup</t>
+  </si>
+  <si>
+    <t>Use self lookup with FOLIO</t>
+  </si>
+  <si>
+    <t>Department of Environmental Resources Management</t>
+  </si>
+  <si>
+    <t>Miami-Dade County RER-DERM Records</t>
+  </si>
+  <si>
+    <t>DermRecords@miamidade.gov</t>
+  </si>
+  <si>
     <t>Regulatory and Economic Resources</t>
   </si>
   <si>
-    <t>Department of Environmental Resources Management</t>
-  </si>
-  <si>
-    <t>Miami-Dade County RER-DERM Records</t>
-  </si>
-  <si>
-    <t>DermRecords@miamidade.gov</t>
-  </si>
-  <si>
     <t>Miami Gardens</t>
   </si>
   <si>
@@ -491,6 +500,33 @@
   </si>
   <si>
     <t>City of Doral Environmental Department</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>City of Miami Building Department</t>
+  </si>
+  <si>
+    <t>PublicRecords@miamigov.com</t>
+  </si>
+  <si>
+    <t>https://apps.miamigov.com/iBuildPortal/BuildingInspection/InspectionsHistory/Search/</t>
+  </si>
+  <si>
+    <t>Search for permits using FOLIO or Address</t>
+  </si>
+  <si>
+    <t>City of Miami Planning Department</t>
+  </si>
+  <si>
+    <t>Send email to email</t>
+  </si>
+  <si>
+    <t>City of Miami Environmental Department</t>
+  </si>
+  <si>
+    <t>City of Miami Fire Department</t>
   </si>
   <si>
     <t>Broward</t>
@@ -638,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -676,6 +712,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1628,13 +1667,13 @@
         <v>94</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>29</v>
@@ -1654,13 +1693,13 @@
         <v>24</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>90</v>
@@ -1669,7 +1708,7 @@
         <v>18</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>29</v>
@@ -1683,28 +1722,28 @@
         <v>86</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>29</v>
@@ -1718,28 +1757,28 @@
         <v>86</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>29</v>
@@ -1753,28 +1792,28 @@
         <v>86</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="H27" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>29</v>
@@ -1788,26 +1827,26 @@
         <v>86</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>29</v>
@@ -1836,28 +1875,28 @@
         <v>86</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>29</v>
@@ -1871,28 +1910,28 @@
         <v>86</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="G30" s="14" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>29</v>
@@ -1906,28 +1945,28 @@
         <v>86</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>29</v>
@@ -1941,26 +1980,26 @@
         <v>86</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="9"/>
@@ -1970,26 +2009,26 @@
         <v>86</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="9"/>
@@ -1999,26 +2038,26 @@
         <v>86</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="9"/>
@@ -2028,26 +2067,26 @@
         <v>86</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="9"/>
@@ -2057,26 +2096,26 @@
         <v>86</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="9"/>
@@ -2086,24 +2125,24 @@
         <v>86</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="9"/>
@@ -2113,216 +2152,322 @@
         <v>86</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="9"/>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C39" s="6" t="s">
+      <c r="A39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G39" s="7" t="s">
+      <c r="D39" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J39" s="2"/>
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H39" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="I39" s="6" t="s">
+      <c r="C40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="15"/>
+      <c r="H40" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J40" s="2"/>
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H40" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="I40" s="6" t="s">
+      <c r="C41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="15"/>
+      <c r="H41" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="9"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H41" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="I41" s="6" t="s">
+      <c r="C42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+      <c r="G42" s="15"/>
+      <c r="H42" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="K42" s="9"/>
+    </row>
+    <row r="43">
       <c r="A43" s="6" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="I43" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="6" t="s">
-        <v>145</v>
-      </c>
       <c r="B44" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="I45" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="6" t="s">
-        <v>145</v>
-      </c>
       <c r="B46" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D46" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G46" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="H46" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H47" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="I47" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="6" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
+      <c r="B48" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
     <row r="51" ht="15.75" customHeight="1"/>
     <row r="52" ht="15.75" customHeight="1"/>
     <row r="53" ht="15.75" customHeight="1"/>
@@ -3295,6 +3440,10 @@
     <row r="1020" ht="15.75" customHeight="1"/>
     <row r="1021" ht="15.75" customHeight="1"/>
     <row r="1022" ht="15.75" customHeight="1"/>
+    <row r="1023" ht="15.75" customHeight="1"/>
+    <row r="1024" ht="15.75" customHeight="1"/>
+    <row r="1025" ht="15.75" customHeight="1"/>
+    <row r="1026" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="G2"/>
@@ -3334,17 +3483,18 @@
     <hyperlink r:id="rId35" ref="G37"/>
     <hyperlink r:id="rId36" ref="G38"/>
     <hyperlink r:id="rId37" ref="G39"/>
-    <hyperlink r:id="rId38" ref="G40"/>
-    <hyperlink r:id="rId39" ref="G41"/>
-    <hyperlink r:id="rId40" ref="G42"/>
-    <hyperlink r:id="rId41" ref="G43"/>
-    <hyperlink r:id="rId42" ref="G44"/>
-    <hyperlink r:id="rId43" ref="G45"/>
-    <hyperlink r:id="rId44" ref="G46"/>
+    <hyperlink r:id="rId38" ref="G43"/>
+    <hyperlink r:id="rId39" ref="G44"/>
+    <hyperlink r:id="rId40" ref="G45"/>
+    <hyperlink r:id="rId41" ref="G46"/>
+    <hyperlink r:id="rId42" ref="G47"/>
+    <hyperlink r:id="rId43" ref="G48"/>
+    <hyperlink r:id="rId44" ref="G49"/>
+    <hyperlink r:id="rId45" ref="G50"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId45"/>
+  <drawing r:id="rId46"/>
 </worksheet>
 </file>
--- a/data/master.xlsx
+++ b/data/master.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="HepqfaTt3GIErvwMaGvwxecBerB+jxMgX+ZFklu+ApU="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="MGBzY/3DCNOg0O+X478JKW0BM9lAmM8pqk/Tpq8sPAw="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="209">
   <si>
     <t>County</t>
   </si>
@@ -397,9 +397,6 @@
     <t>Public records portal; City Clerk is custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">City of Miami Gardens — Environmental </t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -439,12 +436,6 @@
     <t>Portal (Select Planning &amp; Zoning)</t>
   </si>
   <si>
-    <t>City of Miami Lakes - Environmental Department</t>
-  </si>
-  <si>
-    <t>Portal (Select Other)</t>
-  </si>
-  <si>
     <t>Miami Beach</t>
   </si>
   <si>
@@ -463,9 +454,6 @@
     <t>City of Miami Beach Planning Department</t>
   </si>
   <si>
-    <t>City of Miami Beach Environmental Department</t>
-  </si>
-  <si>
     <t>City of Miami Beach Fire Rescue</t>
   </si>
   <si>
@@ -499,9 +487,6 @@
     <t>https://us.openforms.com/Form/ef5b0b78-c7b6-4c25-9cb3-0c2a114fa72c</t>
   </si>
   <si>
-    <t>City of Doral Environmental Department</t>
-  </si>
-  <si>
     <t>Miami</t>
   </si>
   <si>
@@ -523,9 +508,6 @@
     <t>Send email to email</t>
   </si>
   <si>
-    <t>City of Miami Environmental Department</t>
-  </si>
-  <si>
     <t>City of Miami Fire Department</t>
   </si>
   <si>
@@ -550,9 +532,6 @@
     <t>Pompano Beach Planning Department</t>
   </si>
   <si>
-    <t>Pompano Beach Environmental Department</t>
-  </si>
-  <si>
     <t>Pompano Beach Fire Department</t>
   </si>
   <si>
@@ -575,6 +554,135 @@
   </si>
   <si>
     <t>Coral Springs Fire Department</t>
+  </si>
+  <si>
+    <t>Fort Lauderdale</t>
+  </si>
+  <si>
+    <t>City of Ft. Lauderdale Building Department</t>
+  </si>
+  <si>
+    <t>https://fortlauderdalefl.justfoia.com/Forms/Launch/d705cbd6-1396-49b7-939e-8d86c5a87deb</t>
+  </si>
+  <si>
+    <t>City of Ft. Lauderdale Planning Department</t>
+  </si>
+  <si>
+    <t>City of Ft. Lauderdale Fire Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broward </t>
+  </si>
+  <si>
+    <t>Margate</t>
+  </si>
+  <si>
+    <t>City of Margate Building Department</t>
+  </si>
+  <si>
+    <t>https://margatefl.justfoia.com/publicportal/home/newrequest</t>
+  </si>
+  <si>
+    <t>Use portal</t>
+  </si>
+  <si>
+    <t>City of Margate Planning Department</t>
+  </si>
+  <si>
+    <t>City of Margate Environmental Department</t>
+  </si>
+  <si>
+    <t>City of Margate Fire Department</t>
+  </si>
+  <si>
+    <t>Davie</t>
+  </si>
+  <si>
+    <t>Town of Davie Building Department</t>
+  </si>
+  <si>
+    <t>https://davie.mycusthelp.com/webapp/_rs/(S(asb4pnav23ewevaielfelbjx))/supporthome.aspx</t>
+  </si>
+  <si>
+    <t>Town of Davie Planning Department</t>
+  </si>
+  <si>
+    <t>Town of Davie Fire Department</t>
+  </si>
+  <si>
+    <t>Hollywood</t>
+  </si>
+  <si>
+    <t>City of Hollywood Building Department</t>
+  </si>
+  <si>
+    <t>https://hollywoodfl.mycusthelp.com/WEBAPP/_rs/(S(xr41gwiwjorobutcmhaq3ufs))/supporthome.aspx</t>
+  </si>
+  <si>
+    <t>City of Hollywood Planning Department</t>
+  </si>
+  <si>
+    <t>City of Hollywood Fire Department</t>
+  </si>
+  <si>
+    <t>Collier</t>
+  </si>
+  <si>
+    <t>Marco Island</t>
+  </si>
+  <si>
+    <t>City of Marco Island Building Department</t>
+  </si>
+  <si>
+    <t>https://cityofmarcoislandpublicrecords.justfoia.com/Forms/Launch/74d9d907-5bb2-4ea5-8585-62563d66e8f9</t>
+  </si>
+  <si>
+    <t>Use portal for building, fire, &amp; planning</t>
+  </si>
+  <si>
+    <t>City of Marco Island Planning Department</t>
+  </si>
+  <si>
+    <t>City of Marco Island Environmental Department</t>
+  </si>
+  <si>
+    <t>City of Marco Island Fire Department</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Orange County Building Department</t>
+  </si>
+  <si>
+    <t>PublicRecordRequest@ocfl.net</t>
+  </si>
+  <si>
+    <t>Use email</t>
+  </si>
+  <si>
+    <t>Email + FastTrack lookup if login works</t>
+  </si>
+  <si>
+    <t>Orange County Planning Department</t>
+  </si>
+  <si>
+    <t>Orange County Environmental Protection Division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPD@ocfl.net </t>
+  </si>
+  <si>
+    <t>Special Form</t>
+  </si>
+  <si>
+    <t>Use the EPD form</t>
+  </si>
+  <si>
+    <t>Orange County Fire Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email </t>
   </si>
 </sst>
 </file>
@@ -1614,142 +1722,130 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>89</v>
+      <c r="D22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J22" s="2" t="s">
+      <c r="I22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>63</v>
+      <c r="K22" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>94</v>
+      <c r="D23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>63</v>
+      <c r="K23" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>63</v>
+      <c r="K24" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>103</v>
+        <v>75</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>63</v>
+      <c r="K25" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="26">
@@ -1757,28 +1853,28 @@
         <v>86</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>110</v>
+        <v>87</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>112</v>
+        <v>18</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>29</v>
@@ -1792,28 +1888,28 @@
         <v>86</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>104</v>
+        <v>46</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>110</v>
+        <v>94</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>29</v>
@@ -1823,241 +1919,253 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="J28" s="13" t="s">
+      <c r="B28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K28" s="13" t="s">
+      <c r="K28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>119</v>
+      <c r="B29" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>120</v>
+      <c r="D29" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K29" s="9" t="s">
-        <v>39</v>
+      <c r="K29" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>119</v>
+      <c r="B30" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>125</v>
+      <c r="D30" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>123</v>
+        <v>105</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>126</v>
+        <v>111</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K30" s="9" t="s">
-        <v>39</v>
+      <c r="K30" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J31" s="2" t="s">
+      <c r="B31" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J31" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K31" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="K31" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C32" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E32" s="3"/>
+        <v>119</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="F32" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="9"/>
+        <v>123</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="F33" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>132</v>
+        <v>121</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="9"/>
+        <v>125</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="9"/>
@@ -2067,26 +2175,26 @@
         <v>86</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="9"/>
@@ -2096,26 +2204,26 @@
         <v>86</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="9"/>
@@ -2125,24 +2233,26 @@
         <v>86</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="I37" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="9"/>
@@ -2152,24 +2262,24 @@
         <v>86</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="9"/>
@@ -2179,26 +2289,26 @@
         <v>86</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>96</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="9"/>
@@ -2208,24 +2318,24 @@
         <v>86</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="9"/>
@@ -2235,142 +2345,138 @@
         <v>86</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="9"/>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="A42" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I42" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G42" s="15"/>
-      <c r="H42" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="J42" s="2"/>
-      <c r="K42" s="9"/>
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>159</v>
-      </c>
       <c r="G43" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>163</v>
-      </c>
       <c r="G44" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="G45" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="I44" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="H45" s="6" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>162</v>
@@ -2378,62 +2484,62 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>166</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>168</v>
@@ -2442,21 +2548,21 @@
         <v>18</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>166</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>168</v>
@@ -2465,28 +2571,458 @@
         <v>18</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
     <row r="70" ht="15.75" customHeight="1"/>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1"/>
@@ -3444,6 +3980,17 @@
     <row r="1024" ht="15.75" customHeight="1"/>
     <row r="1025" ht="15.75" customHeight="1"/>
     <row r="1026" ht="15.75" customHeight="1"/>
+    <row r="1027" ht="15.75" customHeight="1"/>
+    <row r="1028" ht="15.75" customHeight="1"/>
+    <row r="1029" ht="15.75" customHeight="1"/>
+    <row r="1030" ht="15.75" customHeight="1"/>
+    <row r="1031" ht="15.75" customHeight="1"/>
+    <row r="1032" ht="15.75" customHeight="1"/>
+    <row r="1033" ht="15.75" customHeight="1"/>
+    <row r="1034" ht="15.75" customHeight="1"/>
+    <row r="1035" ht="15.75" customHeight="1"/>
+    <row r="1036" ht="15.75" customHeight="1"/>
+    <row r="1037" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="G2"/>
@@ -3466,35 +4013,51 @@
     <hyperlink r:id="rId18" ref="G20"/>
     <hyperlink r:id="rId19" ref="G21"/>
     <hyperlink r:id="rId20" ref="G22"/>
-    <hyperlink r:id="rId21" ref="I22"/>
-    <hyperlink r:id="rId22" ref="G23"/>
-    <hyperlink r:id="rId23" ref="G24"/>
-    <hyperlink r:id="rId24" ref="G25"/>
-    <hyperlink r:id="rId25" ref="G26"/>
+    <hyperlink r:id="rId21" ref="G23"/>
+    <hyperlink r:id="rId22" ref="G24"/>
+    <hyperlink r:id="rId23" ref="G25"/>
+    <hyperlink r:id="rId24" ref="G26"/>
+    <hyperlink r:id="rId25" ref="I26"/>
     <hyperlink r:id="rId26" ref="G27"/>
-    <hyperlink r:id="rId27" ref="G29"/>
-    <hyperlink r:id="rId28" ref="G30"/>
-    <hyperlink r:id="rId29" ref="G31"/>
+    <hyperlink r:id="rId27" ref="G28"/>
+    <hyperlink r:id="rId28" ref="G29"/>
+    <hyperlink r:id="rId29" ref="G30"/>
     <hyperlink r:id="rId30" ref="G32"/>
     <hyperlink r:id="rId31" ref="G33"/>
     <hyperlink r:id="rId32" ref="G34"/>
     <hyperlink r:id="rId33" ref="G35"/>
-    <hyperlink r:id="rId34" location="/home" ref="G36"/>
-    <hyperlink r:id="rId35" ref="G37"/>
+    <hyperlink r:id="rId34" ref="G36"/>
+    <hyperlink r:id="rId35" location="/home" ref="G37"/>
     <hyperlink r:id="rId36" ref="G38"/>
     <hyperlink r:id="rId37" ref="G39"/>
-    <hyperlink r:id="rId38" ref="G43"/>
-    <hyperlink r:id="rId39" ref="G44"/>
-    <hyperlink r:id="rId40" ref="G45"/>
-    <hyperlink r:id="rId41" ref="G46"/>
-    <hyperlink r:id="rId42" ref="G47"/>
-    <hyperlink r:id="rId43" ref="G48"/>
-    <hyperlink r:id="rId44" ref="G49"/>
-    <hyperlink r:id="rId45" ref="G50"/>
+    <hyperlink r:id="rId38" ref="G42"/>
+    <hyperlink r:id="rId39" ref="G43"/>
+    <hyperlink r:id="rId40" ref="G44"/>
+    <hyperlink r:id="rId41" ref="G45"/>
+    <hyperlink r:id="rId42" ref="G46"/>
+    <hyperlink r:id="rId43" ref="G47"/>
+    <hyperlink r:id="rId44" ref="G48"/>
+    <hyperlink r:id="rId45" ref="G49"/>
+    <hyperlink r:id="rId46" ref="G50"/>
+    <hyperlink r:id="rId47" ref="G51"/>
+    <hyperlink r:id="rId48" ref="G52"/>
+    <hyperlink r:id="rId49" ref="G53"/>
+    <hyperlink r:id="rId50" ref="G54"/>
+    <hyperlink r:id="rId51" ref="G55"/>
+    <hyperlink r:id="rId52" ref="G56"/>
+    <hyperlink r:id="rId53" ref="G57"/>
+    <hyperlink r:id="rId54" ref="G58"/>
+    <hyperlink r:id="rId55" ref="G59"/>
+    <hyperlink r:id="rId56" ref="G60"/>
+    <hyperlink r:id="rId57" ref="G61"/>
+    <hyperlink r:id="rId58" ref="G62"/>
+    <hyperlink r:id="rId59" ref="G63"/>
+    <hyperlink r:id="rId60" ref="G64"/>
+    <hyperlink r:id="rId61" ref="G65"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId46"/>
+  <drawing r:id="rId62"/>
 </worksheet>
 </file>
--- a/data/master.xlsx
+++ b/data/master.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="MGBzY/3DCNOg0O+X478JKW0BM9lAmM8pqk/Tpq8sPAw="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="gj6gQn5o2RfAw41AVD82yd2tLHNEq3yn+XeVxus/dLE="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="219">
   <si>
     <t>County</t>
   </si>
@@ -532,6 +532,18 @@
     <t>Pompano Beach Planning Department</t>
   </si>
   <si>
+    <t>Broward County ENVIROS</t>
+  </si>
+  <si>
+    <t>https://dpep.broward.org/Enviros/default.aspx</t>
+  </si>
+  <si>
+    <t>Use ENVIROS to lookup</t>
+  </si>
+  <si>
+    <t>Facility -&gt; Address Lookup -&gt; Print to PDF</t>
+  </si>
+  <si>
     <t>Pompano Beach Fire Department</t>
   </si>
   <si>
@@ -550,9 +562,6 @@
     <t>Coral Springs Planning Department</t>
   </si>
   <si>
-    <t>Coral Springs Environmental Department</t>
-  </si>
-  <si>
     <t>Coral Springs Fire Department</t>
   </si>
   <si>
@@ -589,9 +598,6 @@
     <t>City of Margate Planning Department</t>
   </si>
   <si>
-    <t>City of Margate Environmental Department</t>
-  </si>
-  <si>
     <t>City of Margate Fire Department</t>
   </si>
   <si>
@@ -623,6 +629,30 @@
   </si>
   <si>
     <t>City of Hollywood Fire Department</t>
+  </si>
+  <si>
+    <t>Parkland</t>
+  </si>
+  <si>
+    <t>City of Parkland Building Department</t>
+  </si>
+  <si>
+    <t>amorales@cityofparkland.org</t>
+  </si>
+  <si>
+    <t>Email City Clerk</t>
+  </si>
+  <si>
+    <t>City of Parkland Planning Department</t>
+  </si>
+  <si>
+    <t>City of Coral Springs-Parkland Fire Department</t>
+  </si>
+  <si>
+    <t>DDiaz@CoralSprings.org</t>
+  </si>
+  <si>
+    <t>Email Coral Springs-Parkland Fire Department</t>
   </si>
   <si>
     <t>Collier</t>
@@ -782,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -823,6 +853,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2413,7 +2446,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="6" t="s">
         <v>151</v>
       </c>
@@ -2421,42 +2454,43 @@
         <v>152</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>158</v>
       </c>
+      <c r="F44" s="6"/>
       <c r="G44" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="6" t="s">
         <v>151</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -2464,22 +2498,22 @@
         <v>151</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -2487,22 +2521,22 @@
         <v>151</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -2510,22 +2544,23 @@
         <v>151</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G48" s="7" t="s">
+      <c r="H48" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I48" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -2533,22 +2568,22 @@
         <v>151</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -2556,22 +2591,22 @@
         <v>151</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -2579,114 +2614,115 @@
         <v>151</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="6" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>173</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="F52" s="6"/>
       <c r="G52" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="H53" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D54" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G54" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="H54" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D55" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -2694,45 +2730,46 @@
         <v>151</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>180</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="F56" s="6"/>
       <c r="G56" s="7" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="6" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -2740,22 +2777,22 @@
         <v>151</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D58" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G58" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="H58" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -2763,22 +2800,22 @@
         <v>151</v>
       </c>
       <c r="B59" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>185</v>
-      </c>
       <c r="G59" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -2786,22 +2823,23 @@
         <v>151</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>187</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="F60" s="6"/>
       <c r="G60" s="7" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -2809,228 +2847,409 @@
         <v>151</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="6" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="J62" s="6" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="6" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="6" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>195</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="F64" s="6"/>
       <c r="G64" s="7" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="6" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="6" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>199</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="G66" s="16"/>
       <c r="H66" s="6" t="s">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="6" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>199</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="G67" s="16"/>
       <c r="H67" s="6" t="s">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>5</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="6" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>204</v>
+        <v>158</v>
+      </c>
+      <c r="F68" s="6"/>
+      <c r="G68" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="6" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D69" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G69" s="16"/>
+      <c r="H69" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F69" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="I69" s="6" t="s">
+      <c r="B74" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
+      <c r="F74" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
     <row r="78" ht="15.75" customHeight="1"/>
     <row r="79" ht="15.75" customHeight="1"/>
     <row r="80" ht="15.75" customHeight="1"/>
@@ -3991,6 +4210,14 @@
     <row r="1035" ht="15.75" customHeight="1"/>
     <row r="1036" ht="15.75" customHeight="1"/>
     <row r="1037" ht="15.75" customHeight="1"/>
+    <row r="1038" ht="15.75" customHeight="1"/>
+    <row r="1039" ht="15.75" customHeight="1"/>
+    <row r="1040" ht="15.75" customHeight="1"/>
+    <row r="1041" ht="15.75" customHeight="1"/>
+    <row r="1042" ht="15.75" customHeight="1"/>
+    <row r="1043" ht="15.75" customHeight="1"/>
+    <row r="1044" ht="15.75" customHeight="1"/>
+    <row r="1045" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="G2"/>
@@ -4054,10 +4281,15 @@
     <hyperlink r:id="rId59" ref="G63"/>
     <hyperlink r:id="rId60" ref="G64"/>
     <hyperlink r:id="rId61" ref="G65"/>
+    <hyperlink r:id="rId62" ref="G68"/>
+    <hyperlink r:id="rId63" ref="G70"/>
+    <hyperlink r:id="rId64" ref="G71"/>
+    <hyperlink r:id="rId65" ref="G72"/>
+    <hyperlink r:id="rId66" ref="G73"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId62"/>
+  <drawing r:id="rId67"/>
 </worksheet>
 </file>
--- a/data/master.xlsx
+++ b/data/master.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="gj6gQn5o2RfAw41AVD82yd2tLHNEq3yn+XeVxus/dLE="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="YDJJpdDsIoyDjKKXdtnMIC/RnJWBqnb+29MuVWVl0WQ="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="235">
   <si>
     <t>County</t>
   </si>
@@ -655,6 +655,27 @@
     <t>Email Coral Springs-Parkland Fire Department</t>
   </si>
   <si>
+    <t>Miramar</t>
+  </si>
+  <si>
+    <t>City of Miramar Building Department</t>
+  </si>
+  <si>
+    <t>https://miramarfl.justfoia.com/Forms/Launch/d705cbd6-1396-49b7-939e-8d86c5a87deb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use portal </t>
+  </si>
+  <si>
+    <t>City of Miramar Planning Department</t>
+  </si>
+  <si>
+    <t>City of Miramar Environmental Department</t>
+  </si>
+  <si>
+    <t>City of Miramar Fire Department</t>
+  </si>
+  <si>
     <t>Collier</t>
   </si>
   <si>
@@ -713,6 +734,33 @@
   </si>
   <si>
     <t xml:space="preserve">Email </t>
+  </si>
+  <si>
+    <t>Highlands</t>
+  </si>
+  <si>
+    <t>Sebring</t>
+  </si>
+  <si>
+    <t>City of Sebring Building Department</t>
+  </si>
+  <si>
+    <t>City Clerk Kathy Haley</t>
+  </si>
+  <si>
+    <t>KathyHaley@mysebring.com</t>
+  </si>
+  <si>
+    <t>Email City Clerk for records</t>
+  </si>
+  <si>
+    <t>City of Sebring Planning Department</t>
+  </si>
+  <si>
+    <t>City of Sebring Environmental Department</t>
+  </si>
+  <si>
+    <t>City of Sebring Fire Department</t>
   </si>
 </sst>
 </file>
@@ -3056,114 +3104,106 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F70" s="6"/>
+      <c r="G70" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="H70" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J70" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>204</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="F71" s="6"/>
       <c r="G71" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J71" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>205</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="F72" s="6"/>
       <c r="G72" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J72" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>206</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="F73" s="6"/>
       <c r="G73" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J73" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>13</v>
@@ -3171,93 +3211,293 @@
       <c r="D74" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="G74" s="7" t="s">
         <v>209</v>
       </c>
       <c r="H74" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="I74" s="6" t="s">
-        <v>211</v>
+      <c r="J74" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="F75" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G75" s="7" t="s">
         <v>209</v>
       </c>
       <c r="H75" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="I75" s="6" t="s">
-        <v>5</v>
+      <c r="J75" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>215</v>
+        <v>18</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D77" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H78" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="F77" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="I77" s="6" t="s">
+      <c r="I78" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
     <row r="86" ht="15.75" customHeight="1"/>
     <row r="87" ht="15.75" customHeight="1"/>
     <row r="88" ht="15.75" customHeight="1"/>
@@ -4218,6 +4458,10 @@
     <row r="1043" ht="15.75" customHeight="1"/>
     <row r="1044" ht="15.75" customHeight="1"/>
     <row r="1045" ht="15.75" customHeight="1"/>
+    <row r="1046" ht="15.75" customHeight="1"/>
+    <row r="1047" ht="15.75" customHeight="1"/>
+    <row r="1048" ht="15.75" customHeight="1"/>
+    <row r="1049" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="G2"/>
@@ -4286,10 +4530,14 @@
     <hyperlink r:id="rId64" ref="G71"/>
     <hyperlink r:id="rId65" ref="G72"/>
     <hyperlink r:id="rId66" ref="G73"/>
+    <hyperlink r:id="rId67" ref="G74"/>
+    <hyperlink r:id="rId68" ref="G75"/>
+    <hyperlink r:id="rId69" ref="G76"/>
+    <hyperlink r:id="rId70" ref="G77"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId67"/>
+  <drawing r:id="rId71"/>
 </worksheet>
 </file>